--- a/medicine/Pharmacie/Vildagliptine/Vildagliptine.xlsx
+++ b/medicine/Pharmacie/Vildagliptine/Vildagliptine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vildagliptine est une molécule antidiabétique, de la classe des inhibiteurs de la dipeptidyl peptidase-4 (DPP-4) ou gliptines.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vildagliptine inhibe la DPP4 qui dégrade les incrétines, d'où une augmentation de leur effet.
 </t>
@@ -543,11 +557,13 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Depuis novembre 2012, la vildagliptine a l’autorisation de mise sur le marché (AMM) en France dans le diabète de type 2 en monothérapie, lorsque la metformine est contre-indiquée ou n'est pas tolérée[2].
-Son efficacité n’a pas été établie en monothérapie[2].
-Il n’y a pas de données d’efficacité spécifiquement chez les patients ayant une intolérance ou une contre-indication à la metformine[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Depuis novembre 2012, la vildagliptine a l’autorisation de mise sur le marché (AMM) en France dans le diabète de type 2 en monothérapie, lorsque la metformine est contre-indiquée ou n'est pas tolérée.
+Son efficacité n’a pas été établie en monothérapie.
+Il n’y a pas de données d’efficacité spécifiquement chez les patients ayant une intolérance ou une contre-indication à la metformine.</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les risques de pancréatite aiguë, d’atteinte hépatique (dont élévation des transaminases) et d’angioœdème font l’objet d’une surveillance renforcée[2].
-En 2013, deux études associant les incrétines et les gliptines à un risque accru de pancréatites et de métaplasie des cellules ductales[Note 1]  ont été publiées[3],[4] ce qui a amené la Food and Drug Administration (FDA) aux  États-Unis[5],[6] puis l'Agence européenne des médicaments à demander des investigations complémentaires sur les risques pancréatiques des traitements basés sur ces molécules dans le diabète de type 2[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les risques de pancréatite aiguë, d’atteinte hépatique (dont élévation des transaminases) et d’angioœdème font l’objet d’une surveillance renforcée.
+En 2013, deux études associant les incrétines et les gliptines à un risque accru de pancréatites et de métaplasie des cellules ductales[Note 1]  ont été publiées, ce qui a amené la Food and Drug Administration (FDA) aux  États-Unis, puis l'Agence européenne des médicaments à demander des investigations complémentaires sur les risques pancréatiques des traitements basés sur ces molécules dans le diabète de type 2.
 En Europe, les molécules impliquées dans ces demandes de recherche complémentaire sont :
 l'exénatide (Byetta, Bydureon),
 la liraglutide (Victoza),
